--- a/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 BIRU- UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 BIRU- UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\HANANI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4639B0A4-90A6-48E1-9AE1-C7506EFD2430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CC7C0-2649-4B96-A7B1-1399908C95C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1525,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="65">
-        <v>21.509</v>
+        <v>21.5092</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
@@ -2484,9 +2484,7 @@
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="50"/>
-      <c r="E36" s="21">
-        <v>500</v>
-      </c>
+      <c r="E36" s="21"/>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2548,13 +2546,11 @@
       <c r="B38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="49">
-        <v>497.54</v>
-      </c>
+      <c r="C38" s="49"/>
       <c r="D38" s="50"/>
       <c r="E38" s="24">
         <f>C38*C10</f>
-        <v>499.13212800000008</v>
+        <v>0</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="3"/>
@@ -2583,13 +2579,11 @@
       <c r="B39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="49">
-        <v>495.47</v>
-      </c>
+      <c r="C39" s="49"/>
       <c r="D39" s="50"/>
       <c r="E39" s="24">
         <f>C39*C10</f>
-        <v>497.0555040000001</v>
+        <v>0</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="3"/>
@@ -2618,13 +2612,11 @@
       <c r="B40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="49">
-        <v>498.92</v>
-      </c>
+      <c r="C40" s="49"/>
       <c r="D40" s="50"/>
       <c r="E40" s="24">
         <f>C40*C10</f>
-        <v>500.51654400000007</v>
+        <v>0</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="3"/>
@@ -2653,13 +2645,11 @@
       <c r="B41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="49">
-        <v>496.16</v>
-      </c>
+      <c r="C41" s="49"/>
       <c r="D41" s="50"/>
       <c r="E41" s="24">
         <f>C41*C10</f>
-        <v>497.74771200000009</v>
+        <v>0</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="3"/>
@@ -2688,13 +2678,11 @@
       <c r="B42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="49">
-        <v>498.33</v>
-      </c>
+      <c r="C42" s="49"/>
       <c r="D42" s="50"/>
       <c r="E42" s="24">
         <f>C42*C10</f>
-        <v>499.92465600000003</v>
+        <v>0</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="3"/>
@@ -2723,13 +2711,11 @@
       <c r="B43" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="49">
-        <v>495.67</v>
-      </c>
+      <c r="C43" s="49"/>
       <c r="D43" s="50"/>
       <c r="E43" s="24">
         <f>C43*C10</f>
-        <v>497.25614400000006</v>
+        <v>0</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="3"/>
@@ -2758,13 +2744,11 @@
       <c r="B44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="49">
-        <v>495.28</v>
-      </c>
+      <c r="C44" s="49"/>
       <c r="D44" s="50"/>
       <c r="E44" s="24">
         <f>C44*C10</f>
-        <v>496.86489600000004</v>
+        <v>0</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="3"/>
@@ -2793,13 +2777,11 @@
       <c r="B45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="49">
-        <v>494.76</v>
-      </c>
+      <c r="C45" s="49"/>
       <c r="D45" s="50"/>
       <c r="E45" s="48">
         <f>C45*C10</f>
-        <v>496.34323200000006</v>
+        <v>0</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="3"/>
@@ -2828,13 +2810,11 @@
       <c r="B46" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="49">
-        <v>495.22</v>
-      </c>
+      <c r="C46" s="49"/>
       <c r="D46" s="50"/>
       <c r="E46" s="24">
         <f>C46*C10</f>
-        <v>496.80470400000007</v>
+        <v>0</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="3"/>
@@ -2863,13 +2843,11 @@
       <c r="B47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="49">
-        <v>494.15</v>
-      </c>
+      <c r="C47" s="49"/>
       <c r="D47" s="50"/>
       <c r="E47" s="24">
         <f>C47*C10</f>
-        <v>495.73128000000003</v>
+        <v>0</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="3"/>
@@ -2898,14 +2876,14 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="86" t="e">
         <f>AVERAGE(C38:D47)</f>
-        <v>496.15</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="26">
         <f>AVERAGE(E38:E47)</f>
-        <v>497.73768000000001</v>
+        <v>0</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="3"/>
@@ -2996,7 +2974,7 @@
       </c>
       <c r="C51" s="55">
         <f>E48</f>
-        <v>497.73768000000001</v>
+        <v>0</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="3"/>
@@ -3029,7 +3007,7 @@
       </c>
       <c r="C52" s="53">
         <f>STDEV(E38:E47)</f>
-        <v>1.5898671624107483</v>
+        <v>0</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="3"/>
@@ -3060,9 +3038,9 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="56" t="e">
         <f>ABS((100*(C51-E36)/E36))</f>
-        <v>0.45246399999999765</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="3"/>
@@ -3093,9 +3071,9 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="87" t="e">
         <f>ABS((100*C52/C51))</f>
-        <v>0.31941868705032506</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="3"/>
@@ -3190,9 +3168,9 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="53" t="e">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="3"/>
@@ -3255,9 +3233,7 @@
       </c>
       <c r="C59" s="54"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="8">
-        <v>100</v>
-      </c>
+      <c r="E59" s="8"/>
       <c r="F59" s="27"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3319,13 +3295,11 @@
       <c r="B61" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="49">
-        <v>97.56</v>
-      </c>
+      <c r="C61" s="49"/>
       <c r="D61" s="50"/>
       <c r="E61" s="24">
         <f>C61*C10</f>
-        <v>97.872192000000013</v>
+        <v>0</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="3"/>
@@ -3354,13 +3328,11 @@
       <c r="B62" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="49">
-        <v>98.62</v>
-      </c>
+      <c r="C62" s="49"/>
       <c r="D62" s="50"/>
       <c r="E62" s="24">
         <f>C62*C10</f>
-        <v>98.93558400000002</v>
+        <v>0</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="3"/>
@@ -3389,13 +3361,11 @@
       <c r="B63" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="49">
-        <v>96.7</v>
-      </c>
+      <c r="C63" s="49"/>
       <c r="D63" s="50"/>
       <c r="E63" s="24">
         <f>C63*C10</f>
-        <v>97.009440000000012</v>
+        <v>0</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="3"/>
@@ -3424,13 +3394,11 @@
       <c r="B64" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="49">
-        <v>99.54</v>
-      </c>
+      <c r="C64" s="49"/>
       <c r="D64" s="50"/>
       <c r="E64" s="24">
         <f>C64*C10</f>
-        <v>99.858528000000021</v>
+        <v>0</v>
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="3"/>
@@ -3459,13 +3427,11 @@
       <c r="B65" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="49">
-        <v>95.08</v>
-      </c>
+      <c r="C65" s="49"/>
       <c r="D65" s="50"/>
       <c r="E65" s="24">
         <f>C65*C10</f>
-        <v>95.384256000000008</v>
+        <v>0</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="3"/>
@@ -3494,13 +3460,11 @@
       <c r="B66" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="49">
-        <v>95.39</v>
-      </c>
+      <c r="C66" s="49"/>
       <c r="D66" s="50"/>
       <c r="E66" s="24">
         <f>C66*C10</f>
-        <v>95.695248000000007</v>
+        <v>0</v>
       </c>
       <c r="F66" s="25"/>
       <c r="G66" s="3"/>
@@ -3529,13 +3493,11 @@
       <c r="B67" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="49">
-        <v>95.77</v>
-      </c>
+      <c r="C67" s="49"/>
       <c r="D67" s="50"/>
       <c r="E67" s="24">
         <f>C67*C10</f>
-        <v>96.076464000000001</v>
+        <v>0</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="3"/>
@@ -3564,13 +3526,11 @@
       <c r="B68" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="49">
-        <v>98.2</v>
-      </c>
+      <c r="C68" s="49"/>
       <c r="D68" s="50"/>
       <c r="E68" s="24">
         <f>C68*C10</f>
-        <v>98.514240000000015</v>
+        <v>0</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="3"/>
@@ -3599,13 +3559,11 @@
       <c r="B69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="49">
-        <v>97.55</v>
-      </c>
+      <c r="C69" s="49"/>
       <c r="D69" s="50"/>
       <c r="E69" s="24">
         <f>C69*C10</f>
-        <v>97.862160000000003</v>
+        <v>0</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="3"/>
@@ -3634,13 +3592,11 @@
       <c r="B70" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="49">
-        <v>96.15</v>
-      </c>
+      <c r="C70" s="49"/>
       <c r="D70" s="50"/>
       <c r="E70" s="24">
         <f>C70*C10</f>
-        <v>96.457680000000011</v>
+        <v>0</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="3"/>
@@ -3675,7 +3631,7 @@
       <c r="D71" s="50"/>
       <c r="E71" s="24">
         <f>AVERAGE(E61:E70)</f>
-        <v>97.366579200000004</v>
+        <v>0</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="3"/>
@@ -3766,7 +3722,7 @@
       </c>
       <c r="C74" s="55">
         <f>E71</f>
-        <v>97.366579200000004</v>
+        <v>0</v>
       </c>
       <c r="D74" s="50"/>
       <c r="E74" s="3"/>
@@ -3799,7 +3755,7 @@
       </c>
       <c r="C75" s="55">
         <f>STDEV(E61:E70)</f>
-        <v>1.4843985490394469</v>
+        <v>0</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="3"/>
@@ -3830,9 +3786,9 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="56" t="e">
         <f>ABS((100*(C74-E59)/E59))</f>
-        <v>2.6334207999999961</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="3"/>
@@ -3863,9 +3819,9 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="56" t="e">
         <f>ABS((100*C75/C74))</f>
-        <v>1.52454626755486</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="3"/>
@@ -3960,9 +3916,9 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="53" t="str">
+      <c r="C80" s="53" t="e">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D80" s="50"/>
       <c r="E80" s="3"/>
